--- a/doc/DB명세서.xlsx
+++ b/doc/DB명세서.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12975" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12975" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TB_USER" sheetId="1" r:id="rId1"/>
     <sheet name="TB_GIFTMONEY" sheetId="5" r:id="rId2"/>
+    <sheet name="TB_GIFTMONEY_EVENTKIND" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="55">
   <si>
     <t>TABLE NAME</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -215,6 +216,34 @@
   </si>
   <si>
     <t>eventKind</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB_GIFTMONEY_EVENTKIND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>giftmoney의 eventKind를 정의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01,02,03…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이벤트 종류 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kindName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(100)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -319,7 +348,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -341,14 +370,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -358,6 +381,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -652,44 +684,44 @@
   </cols>
   <sheetData>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="10" t="s">
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="10" t="s">
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
       <c r="F8" s="1" t="s">
         <v>4</v>
       </c>
@@ -710,11 +742,11 @@
       <c r="B9" s="3">
         <v>1</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
       <c r="F9" s="3" t="s">
         <v>12</v>
       </c>
@@ -733,11 +765,11 @@
       <c r="B10" s="3">
         <v>2</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
       <c r="F10" s="3" t="s">
         <v>17</v>
       </c>
@@ -756,11 +788,11 @@
       <c r="B11" s="3">
         <v>3</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
       <c r="F11" s="3" t="s">
         <v>18</v>
       </c>
@@ -777,11 +809,11 @@
       <c r="B12" s="3">
         <v>4</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
       <c r="F12" s="3" t="s">
         <v>21</v>
       </c>
@@ -796,9 +828,9 @@
       <c r="B13" s="3">
         <v>5</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="5"/>
@@ -809,9 +841,9 @@
       <c r="B14" s="3">
         <v>6</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -822,9 +854,9 @@
       <c r="B15" s="3">
         <v>7</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="5"/>
@@ -835,9 +867,9 @@
       <c r="B16" s="3">
         <v>8</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="9"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="13"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="5"/>
@@ -848,9 +880,9 @@
       <c r="B17" s="3">
         <v>9</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
@@ -861,9 +893,9 @@
       <c r="B18" s="3">
         <v>10</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="9"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="13"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
@@ -874,9 +906,9 @@
       <c r="B19" s="3">
         <v>11</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="9"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="13"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="5"/>
@@ -887,9 +919,9 @@
       <c r="B20" s="3">
         <v>12</v>
       </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="9"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="13"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
@@ -900,9 +932,9 @@
       <c r="B21" s="3">
         <v>13</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
@@ -913,9 +945,9 @@
       <c r="B22" s="3">
         <v>14</v>
       </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -926,9 +958,9 @@
       <c r="B23" s="3">
         <v>15</v>
       </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="9"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="13"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
@@ -939,9 +971,9 @@
       <c r="B24" s="3">
         <v>16</v>
       </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="9"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="13"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
@@ -950,17 +982,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C15:E15"/>
     <mergeCell ref="C24:E24"/>
     <mergeCell ref="C16:E16"/>
     <mergeCell ref="C14:E14"/>
@@ -971,6 +992,17 @@
     <mergeCell ref="C19:E19"/>
     <mergeCell ref="C20:E20"/>
     <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="C8:E8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -981,7 +1013,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12:E12"/>
     </sheetView>
   </sheetViews>
@@ -1005,44 +1037,44 @@
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="10" t="s">
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="10" t="s">
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
       <c r="F8" s="2" t="s">
         <v>4</v>
       </c>
@@ -1063,11 +1095,11 @@
       <c r="B9" s="3">
         <v>1</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
       <c r="F9" s="3" t="s">
         <v>12</v>
       </c>
@@ -1086,11 +1118,11 @@
       <c r="B10" s="3">
         <v>2</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
       <c r="F10" s="3" t="s">
         <v>41</v>
       </c>
@@ -1105,11 +1137,11 @@
       <c r="B11" s="3">
         <v>3</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
       <c r="F11" s="3" t="s">
         <v>42</v>
       </c>
@@ -1124,11 +1156,11 @@
       <c r="B12" s="3">
         <v>4</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
       <c r="F12" s="3" t="s">
         <v>43</v>
       </c>
@@ -1143,11 +1175,11 @@
       <c r="B13" s="3">
         <v>5</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="9"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="13"/>
       <c r="F13" s="3" t="s">
         <v>44</v>
       </c>
@@ -1162,11 +1194,11 @@
       <c r="B14" s="3">
         <v>6</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
       <c r="F14" s="3" t="s">
         <v>45</v>
       </c>
@@ -1181,11 +1213,11 @@
       <c r="B15" s="3">
         <v>7</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
       <c r="F15" s="3" t="s">
         <v>40</v>
       </c>
@@ -1200,9 +1232,9 @@
       <c r="B16" s="3">
         <v>8</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="9"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="13"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="5"/>
@@ -1213,9 +1245,9 @@
       <c r="B17" s="3">
         <v>9</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
@@ -1226,9 +1258,9 @@
       <c r="B18" s="3">
         <v>10</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="9"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="13"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
@@ -1239,9 +1271,9 @@
       <c r="B19" s="3">
         <v>11</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="9"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="13"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
@@ -1252,9 +1284,9 @@
       <c r="B20" s="3">
         <v>12</v>
       </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="9"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="13"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
@@ -1265,9 +1297,9 @@
       <c r="B21" s="3">
         <v>13</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
@@ -1278,9 +1310,9 @@
       <c r="B22" s="3">
         <v>14</v>
       </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -1291,9 +1323,9 @@
       <c r="B23" s="3">
         <v>15</v>
       </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="9"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="13"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
@@ -1302,14 +1334,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C21:E21"/>
     <mergeCell ref="C15:E15"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="E6:J6"/>
@@ -1322,6 +1346,345 @@
     <mergeCell ref="C12:E12"/>
     <mergeCell ref="C13:E13"/>
     <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C21:E21"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:J23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="19" customWidth="1"/>
+    <col min="10" max="10" width="61.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B7" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B10" s="3">
+        <v>2</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="3">
+        <v>3</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="3">
+        <v>4</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B13" s="3">
+        <v>5</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B14" s="3">
+        <v>6</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B15" s="3">
+        <v>7</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B16" s="3">
+        <v>8</v>
+      </c>
+      <c r="C16" s="11"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="4"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B17" s="3">
+        <v>9</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="4"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B18" s="3">
+        <v>10</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="4"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B19" s="3">
+        <v>11</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="4"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B20" s="3">
+        <v>12</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="4"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B21" s="3">
+        <v>13</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="4"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B22" s="3">
+        <v>14</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="4"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B23" s="3">
+        <v>15</v>
+      </c>
+      <c r="C23" s="11"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
